--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1698727.328842853</v>
+        <v>1754192.40388711</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.0964539</v>
+        <v>5312247.587582165</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.11917867</v>
+        <v>2231567.4265064</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7330440.06120053</v>
+        <v>7749090.148154761</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>327.155587265673</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>235.0670659231404</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -716,7 +718,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.6819500972095</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>153.1074389900275</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -896,22 +898,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>337.5010196887474</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>277.7388520301292</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1069,7 +1071,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>18.06912551413435</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>24.67527357749487</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>274.1236289242171</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1184,22 +1186,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>273.2870061584901</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>112.7141006400494</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>105.9181683904499</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1376,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>400.4074754753955</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>109.6793419192571</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>66.28152436014436</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>262.3057424731453</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7194068174555</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1822,16 +1824,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>269.58488331796</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>351.2228221674562</v>
+        <v>265.7345771113586</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>15.28578908919258</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>206.2273198392503</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>265.7345771113586</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2135,10 +2137,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>54.29350408687538</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>81.32470272170768</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>343.5575398289572</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2479,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>138.8619608060989</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>88.25278256141577</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2555,10 +2557,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2570,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>360.4665252061825</v>
       </c>
     </row>
     <row r="27">
@@ -2713,10 +2715,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>29.11907675700255</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>154.1447103430577</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2801,10 +2803,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>108.2642464846192</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>350.5750266479509</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2846,7 +2848,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2956,7 +2958,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>36.45020302297358</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>99.74621675095456</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3080,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3092,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>88.08110241150655</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>29.06736062834964</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -3244,13 +3246,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>209.8436857874772</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>271.338631283351</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3278,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,22 +3426,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>70.62197309526358</v>
       </c>
       <c r="F37" t="n">
-        <v>106.9706214097036</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>269.9562877695847</v>
+        <v>182.1412945836353</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3554,7 +3556,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.76650551914</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>116.8217600420133</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>269.9239700112269</v>
       </c>
       <c r="Y41" t="n">
-        <v>372.9399976196851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3900,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>76.65127106801083</v>
       </c>
       <c r="E43" t="n">
-        <v>32.39438158624719</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>292.6754810332161</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>13.03602294031314</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4147,10 +4149,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>127.8710203300648</v>
+        <v>59.36525717657726</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.230529087692</v>
+        <v>313.0040983215158</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.105938400962</v>
+        <v>306.91991167519</v>
       </c>
       <c r="D2" t="n">
-        <v>898.6457492437168</v>
+        <v>306.4963858086546</v>
       </c>
       <c r="E2" t="n">
-        <v>888.3459378010175</v>
+        <v>296.1965743659554</v>
       </c>
       <c r="F2" t="n">
-        <v>467.315525754705</v>
+        <v>279.206566360047</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>850.932214224331</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1158.166844805022</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1883.183960193295</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N2" t="n">
-        <v>2608.201075581568</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O2" t="n">
-        <v>2608.201075581568</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2707.155598323719</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2450.095106583229</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>2450.095106583229</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>2450.095106583229</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X2" t="n">
-        <v>2049.451708752182</v>
+        <v>723.2252779860053</v>
       </c>
       <c r="Y2" t="n">
-        <v>2049.451708752182</v>
+        <v>723.2252779860053</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>1338.679142791659</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L3" t="n">
-        <v>1338.679142791659</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M3" t="n">
-        <v>1663.699099342436</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N3" t="n">
-        <v>1663.699099342436</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O3" t="n">
-        <v>2367.65618988833</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2041.069473197608</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C4" t="n">
-        <v>1869.976100759324</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>1710.481456082234</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>1549.570640950554</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>1549.570640950554</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>1549.570640950554</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>1399.96318575601</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>1414.045735161221</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>1568.598062883459</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>1828.495163163519</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>2117.759219604013</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>2398.598001998263</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>2658.158612324737</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2863.834052574349</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2929.36208237686</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>2929.36208237686</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>2929.36208237686</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U4" t="n">
-        <v>2929.36208237686</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V4" t="n">
-        <v>2929.36208237686</v>
+        <v>808.8903986708722</v>
       </c>
       <c r="W4" t="n">
-        <v>2650.292417885735</v>
+        <v>808.8903986708722</v>
       </c>
       <c r="X4" t="n">
-        <v>2411.948555745418</v>
+        <v>570.5465365305556</v>
       </c>
       <c r="Y4" t="n">
-        <v>2187.212857134183</v>
+        <v>345.8108379193203</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2130.196341975338</v>
+        <v>881.5511617534477</v>
       </c>
       <c r="C5" t="n">
-        <v>1720.071751288609</v>
+        <v>875.4669751071218</v>
       </c>
       <c r="D5" t="n">
-        <v>1315.607821381669</v>
+        <v>875.0434492405864</v>
       </c>
       <c r="E5" t="n">
-        <v>974.6977004839443</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F5" t="n">
-        <v>553.6672884376319</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>144.9390043304641</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>312.7727131152915</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>850.932214224331</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>850.932214224331</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>1520.157464881917</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N5" t="n">
-        <v>2245.17458027019</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>2888.805436687295</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2888.805436687295</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2794.081007170961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2537.020515430471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2537.020515430471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>2537.020515430471</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X5" t="n">
-        <v>2136.377117599424</v>
+        <v>1288.668610429443</v>
       </c>
       <c r="Y5" t="n">
-        <v>2136.377117599424</v>
+        <v>887.7319373775331</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1175.481669832124</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.481669832124</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.481669832124</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O6" t="n">
-        <v>1879.438760378019</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.6825108647216</v>
+        <v>795.3744376030463</v>
       </c>
       <c r="C7" t="n">
-        <v>662.5891384264381</v>
+        <v>795.3744376030463</v>
       </c>
       <c r="D7" t="n">
-        <v>503.0944937493481</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="E7" t="n">
-        <v>342.1836786176676</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F7" t="n">
-        <v>342.1836786176676</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>174.9332875432111</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1502.713419943787</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1502.713419943787</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U7" t="n">
-        <v>1502.713419943787</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V7" t="n">
-        <v>1502.713419943787</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="W7" t="n">
-        <v>1484.461778010318</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="X7" t="n">
-        <v>1246.117915870001</v>
+        <v>1007.998662762237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1021.382217258766</v>
+        <v>983.0741439970907</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1982.923154454562</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.838967808236</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D8" t="n">
-        <v>1699.94641333933</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E8" t="n">
-        <v>1285.606197856226</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F8" t="n">
-        <v>864.5757858099139</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G8" t="n">
-        <v>455.8475017027461</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M8" t="n">
-        <v>1496.195756848048</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N8" t="n">
-        <v>2221.212872236321</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O8" t="n">
-        <v>2864.843728653426</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P8" t="n">
-        <v>2864.843728653426</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>2794.081007170961</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>2794.081007170961</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V8" t="n">
-        <v>2794.081007170961</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W8" t="n">
-        <v>2794.081007170961</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X8" t="n">
-        <v>2794.081007170961</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y8" t="n">
-        <v>2393.144334119051</v>
+        <v>2553.699187363356</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L9" t="n">
-        <v>839.4134544636129</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M9" t="n">
-        <v>839.4134544636129</v>
+        <v>872.3969322698847</v>
       </c>
       <c r="N9" t="n">
-        <v>839.4134544636129</v>
+        <v>872.3969322698847</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>983.289966059265</v>
+        <v>3477.2282840627</v>
       </c>
       <c r="C10" t="n">
-        <v>812.1965936209815</v>
+        <v>3477.2282840627</v>
       </c>
       <c r="D10" t="n">
-        <v>652.7019489438915</v>
+        <v>3363.37565715356</v>
       </c>
       <c r="E10" t="n">
-        <v>491.791133812211</v>
+        <v>3363.37565715356</v>
       </c>
       <c r="F10" t="n">
-        <v>491.791133812211</v>
+        <v>3198.744531264151</v>
       </c>
       <c r="G10" t="n">
-        <v>324.5407427377544</v>
+        <v>3198.744531264151</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>3063.219625474818</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>3217.771953197056</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>3477.669053477116</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>3766.933109917609</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>4047.77189231186</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>4307.332502638334</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>4513.007942887946</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>4493.263254365856</v>
       </c>
       <c r="S10" t="n">
-        <v>1502.713419943787</v>
+        <v>4493.263254365856</v>
       </c>
       <c r="T10" t="n">
-        <v>1502.713419943787</v>
+        <v>4493.263254365856</v>
       </c>
       <c r="U10" t="n">
-        <v>1502.713419943787</v>
+        <v>4493.263254365856</v>
       </c>
       <c r="V10" t="n">
-        <v>1395.725371064545</v>
+        <v>4219.377509305378</v>
       </c>
       <c r="W10" t="n">
-        <v>1395.725371064545</v>
+        <v>3940.307844814252</v>
       </c>
       <c r="X10" t="n">
-        <v>1395.725371064545</v>
+        <v>3701.963982673936</v>
       </c>
       <c r="Y10" t="n">
-        <v>1170.989672453309</v>
+        <v>3477.2282840627</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>873.1757622412066</v>
+        <v>2537.63019168586</v>
       </c>
       <c r="C11" t="n">
-        <v>463.0511715544767</v>
+        <v>2127.50560099913</v>
       </c>
       <c r="D11" t="n">
-        <v>58.5872416475372</v>
+        <v>1723.041671092191</v>
       </c>
       <c r="E11" t="n">
-        <v>58.5872416475372</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5872416475372</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M11" t="n">
-        <v>1496.195756848048</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N11" t="n">
-        <v>2221.212872236321</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O11" t="n">
-        <v>2864.843728653426</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P11" t="n">
-        <v>2864.843728653426</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q11" t="n">
-        <v>2888.805436687295</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U11" t="n">
-        <v>2818.574868317005</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V11" t="n">
-        <v>2468.737313653485</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W11" t="n">
-        <v>2084.977012788654</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="X11" t="n">
-        <v>1684.333614957606</v>
+        <v>3348.788044402259</v>
       </c>
       <c r="Y11" t="n">
-        <v>1283.396941905696</v>
+        <v>2947.851371350349</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>719.6754135668255</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M12" t="n">
-        <v>1401.119346952143</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>872.3969322698847</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>323.1528800504344</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>323.1528800504344</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>323.1528800504344</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>323.1528800504344</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>158.5217541610257</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>158.5217541610257</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>158.5217541610257</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>547.8885786616697</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>547.8885786616697</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>323.1528800504344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.4149253015327</v>
+        <v>2402.349116479961</v>
       </c>
       <c r="C14" t="n">
-        <v>369.4149253015327</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D14" t="n">
-        <v>58.5872416475372</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E14" t="n">
-        <v>58.5872416475372</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F14" t="n">
-        <v>58.5872416475372</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>312.7727131152915</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K14" t="n">
-        <v>312.7727131152915</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L14" t="n">
-        <v>312.7727131152915</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M14" t="n">
-        <v>1037.789828503564</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N14" t="n">
-        <v>1762.806943891837</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O14" t="n">
-        <v>2406.437800308942</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P14" t="n">
-        <v>2567.644429892003</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T14" t="n">
-        <v>2571.87452311782</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U14" t="n">
-        <v>2314.81403137733</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V14" t="n">
-        <v>1964.976476713811</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W14" t="n">
-        <v>1581.216175848979</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="X14" t="n">
-        <v>1180.572778017932</v>
+        <v>3213.50696919636</v>
       </c>
       <c r="Y14" t="n">
-        <v>779.6361049660221</v>
+        <v>2812.57029614445</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="M15" t="n">
-        <v>676.1022315638701</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1084.258360074431</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5497,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1337.342609327206</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E17" t="n">
-        <v>923.0023938441032</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F17" t="n">
-        <v>501.9719817977906</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5592,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>947.1447271725442</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>947.1447271725442</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N18" t="n">
-        <v>947.1447271725442</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O18" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.6240469015422</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="C19" t="n">
-        <v>745.5306744632587</v>
+        <v>422.9224697737593</v>
       </c>
       <c r="D19" t="n">
-        <v>586.0360297861687</v>
+        <v>422.9224697737593</v>
       </c>
       <c r="E19" t="n">
-        <v>425.1252146544881</v>
+        <v>422.9224697737593</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>258.2913438843506</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>258.2913438843506</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>108.6838886898072</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V19" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W19" t="n">
-        <v>1537.369875986873</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X19" t="n">
-        <v>1329.059451906822</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="Y19" t="n">
-        <v>1104.323753295587</v>
+        <v>594.0158422120428</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>448.0142251324978</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5783,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1105.229067680031</v>
+        <v>3293.69680304197</v>
       </c>
       <c r="C22" t="n">
-        <v>934.1356952417473</v>
+        <v>3293.69680304197</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>3293.69680304197</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W22" t="n">
-        <v>1343.572929820347</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X22" t="n">
-        <v>1105.229067680031</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y22" t="n">
-        <v>1105.229067680031</v>
+        <v>3348.538726362046</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6026,13 +6028,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>831.3433226195527</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="C25" t="n">
-        <v>831.3433226195527</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D25" t="n">
-        <v>831.3433226195527</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.642594311473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V25" t="n">
-        <v>1348.756849250995</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W25" t="n">
-        <v>1069.687184759869</v>
+        <v>651.9930196397099</v>
       </c>
       <c r="X25" t="n">
-        <v>831.3433226195527</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="Y25" t="n">
-        <v>831.3433226195527</v>
+        <v>413.6491574993933</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6269,7 +6271,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3463.374005025663</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C28" t="n">
-        <v>3292.280632587379</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D28" t="n">
-        <v>3132.785987910289</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>4422.636145507842</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>4422.636145507842</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>4393.222936662385</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W28" t="n">
-        <v>4114.153272171259</v>
+        <v>672.929493770359</v>
       </c>
       <c r="X28" t="n">
-        <v>3875.809410030943</v>
+        <v>672.929493770359</v>
       </c>
       <c r="Y28" t="n">
-        <v>3651.073711419707</v>
+        <v>448.1937951591237</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2237.518802661711</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C29" t="n">
-        <v>1827.394211974981</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.930282068041</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E29" t="n">
-        <v>1008.590066584938</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6494,19 +6496,19 @@
         <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W29" t="n">
-        <v>3449.320053209158</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X29" t="n">
-        <v>3048.67665537811</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y29" t="n">
-        <v>2647.7399823262</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>704.368908940975</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3680.47380521523</v>
+        <v>460.6501016978888</v>
       </c>
       <c r="C31" t="n">
-        <v>3509.380432776947</v>
+        <v>289.5567292596053</v>
       </c>
       <c r="D31" t="n">
-        <v>3349.885788099857</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="E31" t="n">
-        <v>3349.885788099857</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3349.885788099857</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3349.885788099857</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V31" t="n">
-        <v>3868.173511609275</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W31" t="n">
-        <v>3868.173511609275</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X31" t="n">
-        <v>3868.173511609275</v>
+        <v>873.0855067031684</v>
       </c>
       <c r="Y31" t="n">
-        <v>3868.173511609275</v>
+        <v>648.3498080919331</v>
       </c>
     </row>
     <row r="32">
@@ -6728,16 +6730,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X32" t="n">
         <v>3360.349242692484</v>
@@ -6780,22 +6782,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>428.968196018315</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="C34" t="n">
-        <v>257.8748235800315</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="D34" t="n">
-        <v>257.8748235800315</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="E34" t="n">
-        <v>257.8748235800315</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V34" t="n">
-        <v>616.6679024123595</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W34" t="n">
-        <v>616.6679024123595</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X34" t="n">
-        <v>616.6679024123595</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y34" t="n">
-        <v>616.6679024123595</v>
+        <v>122.6046680222891</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6916,22 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6938,7 +6940,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -7014,22 +7016,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>1228.182536368609</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O36" t="n">
-        <v>1228.182536368609</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P36" t="n">
         <v>1789.888428857139</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>692.7936626747511</v>
+        <v>640.9315149955648</v>
       </c>
       <c r="C37" t="n">
-        <v>521.7002902364676</v>
+        <v>640.9315149955648</v>
       </c>
       <c r="D37" t="n">
-        <v>362.2056455593776</v>
+        <v>481.4368703184749</v>
       </c>
       <c r="E37" t="n">
-        <v>201.2948304276971</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W37" t="n">
-        <v>1343.572929820347</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X37" t="n">
-        <v>1105.229067680031</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y37" t="n">
-        <v>880.4933690687955</v>
+        <v>828.6312213896092</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7175,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="39">
@@ -7257,10 +7259,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N39" t="n">
         <v>1435.775802995229</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3777.612586109615</v>
+        <v>541.471260550162</v>
       </c>
       <c r="C40" t="n">
-        <v>3606.519213671332</v>
+        <v>541.471260550162</v>
       </c>
       <c r="D40" t="n">
-        <v>3447.024568994242</v>
+        <v>541.471260550162</v>
       </c>
       <c r="E40" t="n">
-        <v>3447.024568994242</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F40" t="n">
-        <v>3282.393443104833</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G40" t="n">
-        <v>3282.393443104833</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>4475.79311641105</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>4236.244377387751</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>4236.244377387751</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V40" t="n">
-        <v>4236.244377387751</v>
+        <v>1232.976330046567</v>
       </c>
       <c r="W40" t="n">
-        <v>3957.174712896625</v>
+        <v>953.9066655554417</v>
       </c>
       <c r="X40" t="n">
-        <v>3957.174712896625</v>
+        <v>953.9066655554417</v>
       </c>
       <c r="Y40" t="n">
-        <v>3957.174712896625</v>
+        <v>729.1709669442064</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2007.15275920376</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C41" t="n">
-        <v>1597.02816851703</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D41" t="n">
-        <v>1192.56423861009</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E41" t="n">
-        <v>778.224023126987</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F41" t="n">
-        <v>778.224023126987</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G41" t="n">
-        <v>369.4957390198192</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M41" t="n">
-        <v>1435.413521245312</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N41" t="n">
-        <v>1435.413521245312</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O41" t="n">
-        <v>2079.044377662417</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>2794.081007170961</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T41" t="n">
-        <v>2794.081007170961</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U41" t="n">
-        <v>2794.081007170961</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V41" t="n">
-        <v>2794.081007170961</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W41" t="n">
-        <v>2794.081007170961</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X41" t="n">
-        <v>2794.081007170961</v>
+        <v>2957.739591403761</v>
       </c>
       <c r="Y41" t="n">
-        <v>2417.373938868249</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L42" t="n">
-        <v>489.5689897796294</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M42" t="n">
-        <v>489.5689897796294</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N42" t="n">
-        <v>489.5689897796294</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O42" t="n">
-        <v>1193.526080325524</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P42" t="n">
-        <v>1755.231972814054</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>240.9162944039464</v>
+        <v>501.0004333550972</v>
       </c>
       <c r="C43" t="n">
-        <v>240.9162944039464</v>
+        <v>329.9070609168137</v>
       </c>
       <c r="D43" t="n">
-        <v>240.9162944039464</v>
+        <v>252.4815345854897</v>
       </c>
       <c r="E43" t="n">
-        <v>208.1946968420806</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F43" t="n">
-        <v>208.1946968420806</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G43" t="n">
-        <v>208.1946968420806</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>1502.713419943787</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S43" t="n">
-        <v>1502.713419943787</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T43" t="n">
-        <v>1502.713419943787</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="U43" t="n">
-        <v>1219.915272489911</v>
+        <v>1151.779700500693</v>
       </c>
       <c r="V43" t="n">
-        <v>946.0295274294331</v>
+        <v>1151.779700500693</v>
       </c>
       <c r="W43" t="n">
-        <v>666.9598629383074</v>
+        <v>1151.779700500693</v>
       </c>
       <c r="X43" t="n">
-        <v>428.6160007979908</v>
+        <v>913.4358383603769</v>
       </c>
       <c r="Y43" t="n">
-        <v>428.6160007979908</v>
+        <v>688.7001397491416</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1302.686153284121</v>
+        <v>2133.178196256168</v>
       </c>
       <c r="C44" t="n">
-        <v>1302.686153284121</v>
+        <v>1723.053605569438</v>
       </c>
       <c r="D44" t="n">
-        <v>1302.686153284121</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="E44" t="n">
-        <v>888.3459378010175</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F44" t="n">
-        <v>467.315525754705</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K44" t="n">
-        <v>850.932214224331</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L44" t="n">
-        <v>850.932214224331</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M44" t="n">
-        <v>850.932214224331</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N44" t="n">
-        <v>1394.856875555747</v>
+        <v>3084.587411558909</v>
       </c>
       <c r="O44" t="n">
-        <v>2038.487731972852</v>
+        <v>3728.218267976014</v>
       </c>
       <c r="P44" t="n">
-        <v>2567.644429892003</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T44" t="n">
-        <v>2707.155598323719</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U44" t="n">
-        <v>2450.095106583229</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V44" t="n">
-        <v>2100.25755191971</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W44" t="n">
-        <v>1716.497251054878</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X44" t="n">
-        <v>1315.853853223831</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y44" t="n">
-        <v>1302.686153284121</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1561.703728412895</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>1427.70865716184</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D45" t="n">
-        <v>1310.811499381233</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E45" t="n">
-        <v>1190.318683373561</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F45" t="n">
-        <v>1081.358803556065</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G45" t="n">
-        <v>974.3686908704041</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>903.6214779061202</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I45" t="n">
-        <v>882.8728865263604</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>882.8728865263604</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K45" t="n">
-        <v>882.8728865263604</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L45" t="n">
-        <v>882.8728865263604</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="M45" t="n">
-        <v>1500.387876442693</v>
+        <v>1390.354056413674</v>
       </c>
       <c r="N45" t="n">
-        <v>2225.404991830966</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="O45" t="n">
-        <v>2929.36208237686</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="P45" t="n">
-        <v>2929.36208237686</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q45" t="n">
-        <v>2929.36208237686</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R45" t="n">
-        <v>2929.36208237686</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S45" t="n">
-        <v>2821.372072491169</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T45" t="n">
-        <v>2662.030208678177</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U45" t="n">
-        <v>2464.679397816396</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V45" t="n">
-        <v>2250.96787080943</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W45" t="n">
-        <v>2037.734702545758</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X45" t="n">
-        <v>1861.408720684651</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y45" t="n">
-        <v>1702.006761048481</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1031.575046053</v>
+        <v>588.2060329131818</v>
       </c>
       <c r="C46" t="n">
-        <v>860.4816736147163</v>
+        <v>417.1126604748984</v>
       </c>
       <c r="D46" t="n">
-        <v>700.9870289376263</v>
+        <v>417.1126604748984</v>
       </c>
       <c r="E46" t="n">
-        <v>540.0762138059458</v>
+        <v>256.2018453432179</v>
       </c>
       <c r="F46" t="n">
-        <v>375.4450879165371</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G46" t="n">
-        <v>208.1946968420806</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T46" t="n">
-        <v>1348.437399245089</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U46" t="n">
-        <v>1348.437399245089</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="V46" t="n">
-        <v>1348.437399245089</v>
+        <v>835.8706455461931</v>
       </c>
       <c r="W46" t="n">
-        <v>1348.437399245089</v>
+        <v>835.8706455461931</v>
       </c>
       <c r="X46" t="n">
-        <v>1348.437399245089</v>
+        <v>835.8706455461931</v>
       </c>
       <c r="Y46" t="n">
-        <v>1219.274752447044</v>
+        <v>775.9057393072262</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>405.8234087504117</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>362.035413379455</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>385.8672701533434</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2753261313751</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8295,22 +8297,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>558.7215717793176</v>
       </c>
       <c r="P6" t="n">
-        <v>282.1764805785802</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>794.6464440407678</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>114.237549887909</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8532,13 +8534,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>384.4175102257753</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>846.2776300172816</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>770.897223114952</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.237549887909</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>745.891489178132</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>186.7359176241981</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8927,22 +8929,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>770.897223114952</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>256.4843426577133</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9006,16 +9008,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>681.3167988054204</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>595.4978220354908</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9024,7 +9026,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9182,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9240,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>492.8993828617429</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>311.7699535792274</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
@@ -9264,7 +9266,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>71.42007065981008</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9717,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>491.1608819079409</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9954,25 +9956,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>425.1489105478544</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10188,19 +10190,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>674.8624769205913</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10209,7 +10211,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10428,25 +10430,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10662,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
@@ -10674,13 +10676,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>739.1859008813134</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>233.8802923605725</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10823,13 +10825,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10905,13 +10907,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,10 +11068,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>220.6390918070421</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,22 +11144,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>491.4496229341745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533852</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11300,13 +11302,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>642.3311405863321</v>
+        <v>811.8635318922903</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11318,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>681.3167988054198</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>455.0735895620844</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>9.789337852876713</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23311,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>144.8105449038279</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23434,7 +23436,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>48.90106107657274</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>143.7176023067173</v>
       </c>
       <c r="D14" t="n">
-        <v>92.69988379041456</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>6.694084528254336</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>49.19646844041387</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>99.89679634752453</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -23950,13 +23952,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>29.73310367966317</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>131.5292052432286</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>76.57499550861139</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>36.3651580272259</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20.43974617426485</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>188.0261852847986</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24443,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>36.46078111520831</v>
       </c>
     </row>
     <row r="27">
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24613,7 +24615,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>242.0278108528707</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>122.1342575031567</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24689,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>54.06597461814516</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>122.8515039573902</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24853,10 +24855,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>48.36516389164335</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24968,10 +24970,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>308.5558614412304</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25084,13 +25086,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>119.0440200142483</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>61.30320182239603</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>88.67973388510013</v>
       </c>
       <c r="F37" t="n">
-        <v>56.01419322081109</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>134.6847134965114</v>
+        <v>222.4997066824608</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.056203810963922</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>154.32512756786</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>126.7129938415101</v>
       </c>
       <c r="Y41" t="n">
-        <v>23.98730870170567</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>81.24842716230825</v>
       </c>
       <c r="E43" t="n">
-        <v>126.9073253941165</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25801,7 +25803,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>113.4434868346285</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>383.8912833810776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26089,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>94.61732129505818</v>
+        <v>163.1230844485457</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501159.4136226458</v>
+        <v>644441.9665482766</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>501159.413622646</v>
+        <v>644441.9665482766</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651709.5019539606</v>
+        <v>651709.5019539609</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651709.5019539607</v>
+        <v>651709.5019539609</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651709.5019539606</v>
+        <v>651709.5019539607</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651709.5019539607</v>
+        <v>651709.5019539606</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651709.5019539606</v>
+        <v>651709.5019539607</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651709.5019539607</v>
+        <v>651709.5019539606</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651709.5019539606</v>
+        <v>651709.5019539605</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651709.5019539606</v>
+        <v>651709.5019539609</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501159.4136226461</v>
+        <v>644441.9665482765</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>501159.4136226455</v>
+        <v>644441.9665482765</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811423</v>
+        <v>407205.9825811425</v>
       </c>
       <c r="C2" t="n">
-        <v>407205.9825811424</v>
+        <v>407205.9825811425</v>
       </c>
       <c r="D2" t="n">
-        <v>407205.9825811423</v>
+        <v>407205.9825811426</v>
       </c>
       <c r="E2" t="n">
-        <v>278421.8964570256</v>
+        <v>358023.3147490429</v>
       </c>
       <c r="F2" t="n">
-        <v>278421.8964570257</v>
+        <v>358023.314749043</v>
       </c>
       <c r="G2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="H2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="I2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="J2" t="n">
         <v>362060.8344188675</v>
@@ -26341,19 +26343,19 @@
         <v>362060.8344188674</v>
       </c>
       <c r="L2" t="n">
+        <v>362060.8344188673</v>
+      </c>
+      <c r="M2" t="n">
         <v>362060.8344188675</v>
       </c>
-      <c r="M2" t="n">
-        <v>362060.8344188674</v>
-      </c>
       <c r="N2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="O2" t="n">
-        <v>278421.8964570258</v>
+        <v>358023.3147490429</v>
       </c>
       <c r="P2" t="n">
-        <v>278421.8964570257</v>
+        <v>358023.3147490429</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>5731.72800046337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>157566.97087753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118142.4647237391</v>
+        <v>155118.3712081971</v>
       </c>
       <c r="C4" t="n">
-        <v>118142.4647237391</v>
+        <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>118142.4647237391</v>
+        <v>45643.1971151983</v>
       </c>
       <c r="E4" t="n">
-        <v>533.3187768863874</v>
+        <v>728.2411357281799</v>
       </c>
       <c r="F4" t="n">
-        <v>533.3187768863874</v>
+        <v>728.2411357281799</v>
       </c>
       <c r="G4" t="n">
+        <v>738.1279301446466</v>
+      </c>
+      <c r="H4" t="n">
         <v>738.1279301446465</v>
-      </c>
-      <c r="H4" t="n">
-        <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446464</v>
       </c>
       <c r="K4" t="n">
         <v>738.1279301446465</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446464</v>
       </c>
       <c r="N4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>533.3187768863874</v>
+        <v>728.24113572818</v>
       </c>
       <c r="P4" t="n">
-        <v>533.3187768863872</v>
+        <v>728.2411357281799</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34514.53807782014</v>
+        <v>11763.03640133375</v>
       </c>
       <c r="C6" t="n">
-        <v>210909.6142052751</v>
+        <v>186718.5462944478</v>
       </c>
       <c r="D6" t="n">
-        <v>210909.614205275</v>
+        <v>64952.38824588124</v>
       </c>
       <c r="E6" t="n">
-        <v>233362.274028011</v>
+        <v>287701.3268284197</v>
       </c>
       <c r="F6" t="n">
-        <v>233362.2740280111</v>
+        <v>287701.3268284198</v>
       </c>
       <c r="G6" t="n">
-        <v>171722.3118117356</v>
+        <v>284725.7682433861</v>
       </c>
       <c r="H6" t="n">
-        <v>290457.4962438496</v>
+        <v>290457.4962438495</v>
       </c>
       <c r="I6" t="n">
-        <v>290457.4962438496</v>
+        <v>290457.4962438494</v>
       </c>
       <c r="J6" t="n">
-        <v>98844.99307349672</v>
+        <v>153862.6954379546</v>
       </c>
       <c r="K6" t="n">
         <v>290457.4962438494</v>
       </c>
       <c r="L6" t="n">
+        <v>132890.5253663194</v>
+      </c>
+      <c r="M6" t="n">
         <v>290457.4962438495</v>
       </c>
-      <c r="M6" t="n">
-        <v>290457.4962438494</v>
-      </c>
       <c r="N6" t="n">
-        <v>290457.4962438495</v>
+        <v>290457.4962438493</v>
       </c>
       <c r="O6" t="n">
-        <v>233362.2740280112</v>
+        <v>287701.3268284197</v>
       </c>
       <c r="P6" t="n">
-        <v>233362.274028011</v>
+        <v>287701.3268284198</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>73.263703342197</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>169.5739353429557</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.14075923289448</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27552,10 +27554,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>118.0394486198457</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27618,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>72.69579363952482</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>118.8981118226078</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -27834,13 +27836,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>258.20984233208</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>197.8130680476281</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>126.295661683653</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>123.6403001629007</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>45.18559759026971</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2287192194233</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>310.3380106875669</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>328.302986414926</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>675.9851016743296</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P6" t="n">
-        <v>227.9168455757764</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>701.3562195837223</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>24.20374548875697</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>788.7133462788642</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>677.9849323583327</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.20374548875697</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>688.3272054397146</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>133.5425242304481</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>677.9849323583327</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>162.8349793768292</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>623.7525150670029</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>542.3044286417409</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>254.0184745792274</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
@@ -35984,7 +35986,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>370.8892755450506</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
@@ -37394,13 +37396,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>685.9925074875634</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>176.1288133605725</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37543,13 +37545,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,10 +37788,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>127.3488673499967</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>435.3350991233254</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>504.6010349596353</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,13 +38022,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>549.4188498297128</v>
+        <v>718.951241135671</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38038,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>623.7525150670024</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>401.8801961683344</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1754192.40388711</v>
+        <v>1752865.466264326</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5312247.587582165</v>
+        <v>5312247.587582167</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231567.4265064</v>
+        <v>2231567.426506398</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7749090.148154761</v>
+        <v>7749090.14815476</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>235.0670659231404</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>296.3165330601028</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>153.1074389900275</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>132.0152571910189</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>182.4982460851373</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>277.7388520301292</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>124.676040442076</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -1071,10 +1071,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.67527357749487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>252.9193615460193</v>
       </c>
       <c r="Y8" t="n">
-        <v>273.2870061584901</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>112.7141006400494</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>266.272328390067</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>400.4074754753955</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>124.137244114841</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>66.28152436014436</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1587,16 +1587,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>262.3057424731453</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>303.3766210912208</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1669,7 +1669,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1821,16 +1821,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>269.58488331796</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>136.6868991713731</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>265.7345771113586</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>47.64512042712315</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>15.28578908919258</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>171.873363262333</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>265.7345771113586</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.29350408687538</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>85.56799895851995</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>360.5621482941648</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2380,13 +2380,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>343.5575398289572</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>160.3562652764842</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>88.25278256141577</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2623,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>360.4665252061825</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>159.2546371620257</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>154.1447103430577</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>350.5750266479509</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.45020302297358</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>28.65754449710899</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3094,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>88.08110241150655</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>29.06736062834964</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>271.338631283351</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3283,7 +3283,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>88.37144488016051</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>70.62197309526358</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3483,16 +3483,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>182.1412945836353</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3663,13 +3663,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>163.92803970726</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>116.8217600420133</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>124.1372441148409</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>269.9239700112269</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>128.6711217253181</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65127106801083</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>292.6754810332161</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4042,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>269.9239700112269</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>155.8944499847354</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4197,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.36525717657726</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.0040983215158</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C2" t="n">
-        <v>306.91991167519</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D2" t="n">
-        <v>306.4963858086546</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E2" t="n">
-        <v>296.1965743659554</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F2" t="n">
-        <v>279.206566360047</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4339,43 +4339,43 @@
         <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>216.5644706858345</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1123.868675817053</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="X2" t="n">
-        <v>723.2252779860053</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="Y2" t="n">
-        <v>723.2252779860053</v>
+        <v>1788.944652126463</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>537.7254774811266</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>537.7254774811266</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>537.7254774811266</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1246.342524902554</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5443774486778</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V4" t="n">
-        <v>808.8903986708722</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="W4" t="n">
-        <v>808.8903986708722</v>
+        <v>506.9953472308603</v>
       </c>
       <c r="X4" t="n">
-        <v>570.5465365305556</v>
+        <v>506.9953472308603</v>
       </c>
       <c r="Y4" t="n">
-        <v>345.8108379193203</v>
+        <v>373.6466025934674</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>881.5511617534477</v>
+        <v>662.5483777641728</v>
       </c>
       <c r="C5" t="n">
-        <v>875.4669751071218</v>
+        <v>478.2067150519129</v>
       </c>
       <c r="D5" t="n">
-        <v>875.0434492405864</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E5" t="n">
-        <v>864.7436377978871</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>847.7536297919787</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>176.0078249962696</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>1569.212905409372</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X5" t="n">
-        <v>1288.668610429443</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y5" t="n">
-        <v>887.7319373775331</v>
+        <v>1072.769557428662</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.3744376030463</v>
+        <v>369.9262918357392</v>
       </c>
       <c r="C7" t="n">
-        <v>795.3744376030463</v>
+        <v>369.9262918357392</v>
       </c>
       <c r="D7" t="n">
-        <v>635.8797929259563</v>
+        <v>369.9262918357392</v>
       </c>
       <c r="E7" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1246.342524902554</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1246.342524902554</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1246.342524902554</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>1007.998662762237</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="Y7" t="n">
-        <v>983.0741439970907</v>
+        <v>495.8616862216745</v>
       </c>
     </row>
     <row r="8">
@@ -4810,22 +4810,22 @@
         <v>883.9156920306029</v>
       </c>
       <c r="L8" t="n">
-        <v>1596.507091842841</v>
+        <v>1555.087803928537</v>
       </c>
       <c r="M8" t="n">
-        <v>2290.849749230726</v>
+        <v>2331.406394920291</v>
       </c>
       <c r="N8" t="n">
-        <v>3044.030765869344</v>
+        <v>3084.587411558909</v>
       </c>
       <c r="O8" t="n">
-        <v>3687.661622286449</v>
+        <v>3728.218267976014</v>
       </c>
       <c r="P8" t="n">
-        <v>4216.818320205601</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q8" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R8" t="n">
         <v>4578.535972690457</v>
@@ -4843,13 +4843,13 @@
         <v>3614.150367027407</v>
       </c>
       <c r="W8" t="n">
-        <v>3230.390066162576</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="X8" t="n">
-        <v>2829.746668331528</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y8" t="n">
-        <v>2553.699187363356</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K9" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="L9" t="n">
-        <v>91.57071945380915</v>
+        <v>391.8652231354945</v>
       </c>
       <c r="M9" t="n">
-        <v>872.3969322698847</v>
+        <v>1234.842303830061</v>
       </c>
       <c r="N9" t="n">
-        <v>872.3969322698847</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="O9" t="n">
-        <v>1576.354022815779</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="P9" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R9" t="n">
         <v>2138.059915304309</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3477.2282840627</v>
+        <v>422.1587365691826</v>
       </c>
       <c r="C10" t="n">
-        <v>3477.2282840627</v>
+        <v>251.0653641308991</v>
       </c>
       <c r="D10" t="n">
-        <v>3363.37565715356</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E10" t="n">
-        <v>3363.37565715356</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F10" t="n">
-        <v>3198.744531264151</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G10" t="n">
-        <v>3198.744531264151</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H10" t="n">
-        <v>3049.137076069607</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I10" t="n">
-        <v>3049.137076069607</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J10" t="n">
-        <v>3063.219625474818</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K10" t="n">
-        <v>3217.771953197056</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L10" t="n">
-        <v>3477.669053477116</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M10" t="n">
-        <v>3766.933109917609</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N10" t="n">
-        <v>4047.77189231186</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O10" t="n">
-        <v>4307.332502638334</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P10" t="n">
-        <v>4513.007942887946</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q10" t="n">
-        <v>4578.535972690457</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>4493.263254365856</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>4493.263254365856</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T10" t="n">
-        <v>4493.263254365856</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U10" t="n">
-        <v>4493.263254365856</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V10" t="n">
-        <v>4219.377509305378</v>
+        <v>1352.007668205905</v>
       </c>
       <c r="W10" t="n">
-        <v>3940.307844814252</v>
+        <v>1072.938003714779</v>
       </c>
       <c r="X10" t="n">
-        <v>3701.963982673936</v>
+        <v>834.5941415744624</v>
       </c>
       <c r="Y10" t="n">
-        <v>3477.2282840627</v>
+        <v>609.858442963227</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2537.63019168586</v>
+        <v>2150.258151684062</v>
       </c>
       <c r="C11" t="n">
-        <v>2127.50560099913</v>
+        <v>1740.133560997332</v>
       </c>
       <c r="D11" t="n">
-        <v>1723.041671092191</v>
+        <v>1335.669631090393</v>
       </c>
       <c r="E11" t="n">
-        <v>1318.589675662498</v>
+        <v>921.3294156072894</v>
       </c>
       <c r="F11" t="n">
-        <v>897.5592636161858</v>
+        <v>500.299003560977</v>
       </c>
       <c r="G11" t="n">
-        <v>488.830979509018</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H11" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I11" t="n">
         <v>91.57071945380915</v>
@@ -5053,40 +5053,40 @@
         <v>2372.825682834595</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O11" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P11" t="n">
-        <v>4216.818320205601</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q11" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R11" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T11" t="n">
-        <v>4356.329488637316</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U11" t="n">
-        <v>4099.268996896826</v>
+        <v>4095.65725775986</v>
       </c>
       <c r="V11" t="n">
-        <v>3749.431442233307</v>
+        <v>3745.819703096341</v>
       </c>
       <c r="W11" t="n">
-        <v>3749.431442233307</v>
+        <v>3362.059402231509</v>
       </c>
       <c r="X11" t="n">
-        <v>3348.788044402259</v>
+        <v>2961.416004400462</v>
       </c>
       <c r="Y11" t="n">
-        <v>2947.851371350349</v>
+        <v>2560.479331348552</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>740.1898332817411</v>
+        <v>1401.278005201029</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1898332817411</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="N12" t="n">
-        <v>872.3969322698847</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="O12" t="n">
-        <v>1576.354022815779</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="P12" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q12" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R12" t="n">
         <v>2138.059915304309</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>323.1528800504344</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C13" t="n">
-        <v>323.1528800504344</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D13" t="n">
-        <v>323.1528800504344</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E13" t="n">
-        <v>323.1528800504344</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5217541610257</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G13" t="n">
-        <v>158.5217541610257</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H13" t="n">
-        <v>158.5217541610257</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I13" t="n">
         <v>91.57071945380915</v>
@@ -5223,28 +5223,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1109.756390606671</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U13" t="n">
-        <v>826.9582431527954</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V13" t="n">
-        <v>826.9582431527954</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W13" t="n">
-        <v>547.8885786616697</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X13" t="n">
-        <v>547.8885786616697</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y13" t="n">
-        <v>323.1528800504344</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2402.349116479961</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C14" t="n">
-        <v>2137.393821052541</v>
+        <v>1608.464224928399</v>
       </c>
       <c r="D14" t="n">
-        <v>1732.929891145602</v>
+        <v>1204.000295021459</v>
       </c>
       <c r="E14" t="n">
-        <v>1318.589675662498</v>
+        <v>1204.000295021459</v>
       </c>
       <c r="F14" t="n">
         <v>897.5592636161858</v>
@@ -5290,16 +5290,16 @@
         <v>2372.825682834595</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O14" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P14" t="n">
-        <v>4216.818320205601</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q14" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R14" t="n">
         <v>4578.535972690457</v>
@@ -5317,13 +5317,13 @@
         <v>3614.150367027407</v>
       </c>
       <c r="W14" t="n">
-        <v>3614.150367027407</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X14" t="n">
-        <v>3213.50696919636</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y14" t="n">
-        <v>2812.57029614445</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K15" t="n">
-        <v>547.3769757191078</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="L15" t="n">
-        <v>547.3769757191078</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="M15" t="n">
-        <v>547.3769757191078</v>
+        <v>884.9978391460777</v>
       </c>
       <c r="N15" t="n">
-        <v>1084.258360074431</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="O15" t="n">
-        <v>1788.215450620326</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="P15" t="n">
-        <v>1788.215450620326</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q15" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R15" t="n">
         <v>2138.059915304309</v>
@@ -5460,28 +5460,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S16" t="n">
-        <v>1349.305129629969</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T16" t="n">
-        <v>1109.756390606671</v>
+        <v>1195.029108931271</v>
       </c>
       <c r="U16" t="n">
-        <v>826.9582431527954</v>
+        <v>1195.029108931271</v>
       </c>
       <c r="V16" t="n">
-        <v>826.9582431527954</v>
+        <v>921.1433638707933</v>
       </c>
       <c r="W16" t="n">
-        <v>554.650280205361</v>
+        <v>642.0736993796677</v>
       </c>
       <c r="X16" t="n">
-        <v>316.3064180650445</v>
+        <v>504.0061244590888</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.57071945380915</v>
+        <v>279.2704258478535</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1423.694372010133</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1009.35415652703</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>588.3237444807176</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
-        <v>179.5954603735497</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>141.3700819604442</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M18" t="n">
-        <v>524.2254458227151</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N18" t="n">
-        <v>524.2254458227151</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="O18" t="n">
-        <v>1228.182536368609</v>
+        <v>1651.101817718438</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>594.0158422120428</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>422.9224697737593</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>422.9224697737593</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>422.9224697737593</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>258.2913438843506</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>258.2913438843506</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>108.6838886898072</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V19" t="n">
-        <v>1111.429368843485</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W19" t="n">
-        <v>832.3597043523594</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X19" t="n">
-        <v>594.0158422120428</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.0158422120428</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1692.113136769081</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1277.772921285978</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>856.7425092396657</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>448.0142251324978</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.13812587521</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.182536368609</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O21" t="n">
-        <v>1228.182536368609</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3293.69680304197</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="C22" t="n">
-        <v>3293.69680304197</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="D22" t="n">
-        <v>3293.69680304197</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T22" t="n">
-        <v>4422.636145507842</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U22" t="n">
-        <v>4139.837998053967</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V22" t="n">
-        <v>3865.952252993488</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="W22" t="n">
-        <v>3586.882588502363</v>
+        <v>701.6163189813931</v>
       </c>
       <c r="X22" t="n">
-        <v>3348.538726362046</v>
+        <v>463.2724568410765</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.538726362046</v>
+        <v>376.8401346607533</v>
       </c>
     </row>
     <row r="23">
@@ -6028,13 +6028,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3350.771460859042</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>2950.128063027995</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2549.191389976085</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>524.2254458227151</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L24" t="n">
-        <v>524.2254458227151</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M24" t="n">
-        <v>524.2254458227151</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N24" t="n">
-        <v>524.2254458227151</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O24" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.6491574993933</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C25" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1297.821136963575</v>
+        <v>1189.002082334981</v>
       </c>
       <c r="U25" t="n">
-        <v>1015.022989509699</v>
+        <v>1189.002082334981</v>
       </c>
       <c r="V25" t="n">
-        <v>741.1372444492208</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="W25" t="n">
-        <v>651.9930196397099</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X25" t="n">
-        <v>413.6491574993933</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.6491574993933</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2139.066799289355</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2549.287978953845</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N27" t="n">
-        <v>1422.708046067539</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O27" t="n">
-        <v>1422.708046067539</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.4940887650794</v>
+        <v>861.9518456939827</v>
       </c>
       <c r="C28" t="n">
-        <v>260.4940887650794</v>
+        <v>690.8584732556992</v>
       </c>
       <c r="D28" t="n">
-        <v>260.4940887650794</v>
+        <v>531.3638285786092</v>
       </c>
       <c r="E28" t="n">
-        <v>260.4940887650794</v>
+        <v>370.4530134469287</v>
       </c>
       <c r="F28" t="n">
-        <v>260.4940887650794</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W28" t="n">
-        <v>672.929493770359</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X28" t="n">
-        <v>672.929493770359</v>
+        <v>861.9518456939827</v>
       </c>
       <c r="Y28" t="n">
-        <v>448.1937951591237</v>
+        <v>861.9518456939827</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2494.579294402201</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2084.454703715471</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1679.990773808531</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1265.650558325428</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>844.6201462791155</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>4090.140845814479</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3706.380544949648</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3305.7371471186</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2904.80047406669</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>111.2881081840224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>567.0943644493211</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>1228.182536368609</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.182536368609</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>1228.182536368609</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>460.6501016978888</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C31" t="n">
-        <v>289.5567292596053</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D31" t="n">
-        <v>130.0620845825153</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1508.422861343328</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1508.422861343328</v>
       </c>
       <c r="U31" t="n">
-        <v>1111.429368843485</v>
+        <v>1225.624713889452</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.429368843485</v>
+        <v>951.7389688289743</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.429368843485</v>
+        <v>672.6693043378486</v>
       </c>
       <c r="X31" t="n">
-        <v>873.0855067031684</v>
+        <v>434.325442197532</v>
       </c>
       <c r="Y31" t="n">
-        <v>648.3498080919331</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N33" t="n">
-        <v>1210.13812587521</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6046680222891</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>122.6046680222891</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>122.6046680222891</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>122.6046680222891</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>122.6046680222891</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>122.6046680222891</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6885,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>913.9039397142094</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>640.0181946537314</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>360.9485301626057</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>122.6046680222891</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.6046680222891</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>1615.520903630173</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>640.9315149955648</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>640.9315149955648</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4368703184749</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>828.6312213896092</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>828.6312213896092</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>828.6312213896092</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>828.6312213896092</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1914.319620822223</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1509.855690915283</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1095.51547543218</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>674.4850633858673</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
         <v>490.5039577458317</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4269.84331758475</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>3920.005762921231</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>735.0499203580262</v>
       </c>
       <c r="M39" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>541.471260550162</v>
+        <v>757.1294022244522</v>
       </c>
       <c r="C40" t="n">
-        <v>541.471260550162</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D40" t="n">
-        <v>541.471260550162</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E40" t="n">
-        <v>541.471260550162</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F40" t="n">
-        <v>376.8401346607533</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1457.058715819291</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1457.058715819291</v>
       </c>
       <c r="U40" t="n">
-        <v>1350.978107866783</v>
+        <v>1457.058715819291</v>
       </c>
       <c r="V40" t="n">
-        <v>1232.976330046567</v>
+        <v>1183.172970758813</v>
       </c>
       <c r="W40" t="n">
-        <v>953.9066655554417</v>
+        <v>1183.172970758813</v>
       </c>
       <c r="X40" t="n">
-        <v>953.9066655554417</v>
+        <v>944.8291086184965</v>
       </c>
       <c r="Y40" t="n">
-        <v>729.1709669442064</v>
+        <v>944.8291086184965</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2547.518411739271</v>
+        <v>2275.649307355618</v>
       </c>
       <c r="C41" t="n">
-        <v>2137.393821052541</v>
+        <v>1865.524716668889</v>
       </c>
       <c r="D41" t="n">
-        <v>1732.929891145602</v>
+        <v>1461.060786761949</v>
       </c>
       <c r="E41" t="n">
-        <v>1318.589675662498</v>
+        <v>1046.720571278846</v>
       </c>
       <c r="F41" t="n">
-        <v>897.5592636161858</v>
+        <v>625.6901592325335</v>
       </c>
       <c r="G41" t="n">
-        <v>488.830979509018</v>
+        <v>216.9618751253656</v>
       </c>
       <c r="H41" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I41" t="n">
         <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7802573176947</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K41" t="n">
-        <v>801.9397584267342</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L41" t="n">
-        <v>1514.531158238972</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M41" t="n">
-        <v>2290.849749230726</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O41" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P41" t="n">
-        <v>4216.818320205601</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q41" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R41" t="n">
         <v>4578.535972690457</v>
@@ -7444,19 +7444,19 @@
         <v>4221.048413431417</v>
       </c>
       <c r="U41" t="n">
-        <v>3963.987921690927</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V41" t="n">
-        <v>3614.150367027407</v>
+        <v>3871.210858767897</v>
       </c>
       <c r="W41" t="n">
-        <v>3230.390066162576</v>
+        <v>3487.450557903066</v>
       </c>
       <c r="X41" t="n">
-        <v>2957.739591403761</v>
+        <v>3086.807160072018</v>
       </c>
       <c r="Y41" t="n">
-        <v>2957.739591403761</v>
+        <v>2685.870487020108</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>91.57071945380915</v>
       </c>
       <c r="M42" t="n">
-        <v>934.5478001483758</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="N42" t="n">
-        <v>1434.102824758415</v>
+        <v>492.9929482232712</v>
       </c>
       <c r="O42" t="n">
-        <v>2138.059915304309</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P42" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q42" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R42" t="n">
         <v>2138.059915304309</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>501.0004333550972</v>
+        <v>415.6964900203079</v>
       </c>
       <c r="C43" t="n">
-        <v>329.9070609168137</v>
+        <v>415.6964900203079</v>
       </c>
       <c r="D43" t="n">
-        <v>252.4815345854897</v>
+        <v>256.2018453432179</v>
       </c>
       <c r="E43" t="n">
-        <v>91.57071945380915</v>
+        <v>256.2018453432179</v>
       </c>
       <c r="F43" t="n">
         <v>91.57071945380915</v>
@@ -7596,25 +7596,25 @@
         <v>1620.969616074659</v>
       </c>
       <c r="S43" t="n">
-        <v>1434.577847954569</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T43" t="n">
-        <v>1434.577847954569</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U43" t="n">
-        <v>1151.779700500693</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V43" t="n">
-        <v>1151.779700500693</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W43" t="n">
-        <v>1151.779700500693</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X43" t="n">
-        <v>913.4358383603769</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="Y43" t="n">
-        <v>688.7001397491416</v>
+        <v>545.6673200458818</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2133.178196256168</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C44" t="n">
-        <v>1723.053605569438</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D44" t="n">
-        <v>1318.589675662498</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E44" t="n">
         <v>1318.589675662498</v>
@@ -7660,13 +7660,13 @@
         <v>2372.825682834595</v>
       </c>
       <c r="N44" t="n">
-        <v>3084.587411558909</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O44" t="n">
-        <v>3728.218267976014</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P44" t="n">
-        <v>4257.374965895166</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q44" t="n">
         <v>4578.535972690457</v>
@@ -7690,10 +7690,10 @@
         <v>3230.390066162576</v>
       </c>
       <c r="X44" t="n">
-        <v>2829.746668331528</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="Y44" t="n">
-        <v>2428.809995279618</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K45" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L45" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M45" t="n">
-        <v>1390.354056413674</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="N45" t="n">
-        <v>1788.215450620326</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O45" t="n">
-        <v>1788.215450620326</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P45" t="n">
-        <v>1788.215450620326</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q45" t="n">
         <v>2138.059915304309</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>588.2060329131818</v>
+        <v>365.3859067482057</v>
       </c>
       <c r="C46" t="n">
-        <v>417.1126604748984</v>
+        <v>365.3859067482057</v>
       </c>
       <c r="D46" t="n">
-        <v>417.1126604748984</v>
+        <v>207.916765349483</v>
       </c>
       <c r="E46" t="n">
-        <v>256.2018453432179</v>
+        <v>207.916765349483</v>
       </c>
       <c r="F46" t="n">
-        <v>91.57071945380915</v>
+        <v>207.916765349483</v>
       </c>
       <c r="G46" t="n">
-        <v>91.57071945380915</v>
+        <v>207.916765349483</v>
       </c>
       <c r="H46" t="n">
-        <v>91.57071945380915</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I46" t="n">
         <v>91.57071945380915</v>
@@ -7830,28 +7830,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1109.756390606671</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U46" t="n">
-        <v>1109.756390606671</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="V46" t="n">
-        <v>835.8706455461931</v>
+        <v>1107.535131990883</v>
       </c>
       <c r="W46" t="n">
-        <v>835.8706455461931</v>
+        <v>828.4654674997576</v>
       </c>
       <c r="X46" t="n">
-        <v>835.8706455461931</v>
+        <v>590.121605359441</v>
       </c>
       <c r="Y46" t="n">
-        <v>775.9057393072262</v>
+        <v>365.3859067482057</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>269.8552598673813</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
@@ -8002,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>362.035413379455</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>391.1981341283837</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>228.888951090043</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>558.7215717793176</v>
+        <v>502.7883324430327</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,10 +8458,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>773.4370262425764</v>
       </c>
       <c r="M8" t="n">
-        <v>794.6464440407678</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>164.6818431230229</v>
       </c>
       <c r="M9" t="n">
-        <v>846.2776300172816</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>770.897223114952</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,25 +8774,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>418.55208783606</v>
       </c>
       <c r="N12" t="n">
-        <v>186.7359176241981</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>770.897223114952</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>664.2453565966349</v>
       </c>
       <c r="N15" t="n">
-        <v>595.4978220354908</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9029,7 +9029,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>492.8993828617429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9260,13 +9260,13 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>164.5900307362087</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
@@ -9488,22 +9488,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N21" t="n">
-        <v>71.42007065981008</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>491.1608819079409</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
@@ -9728,7 +9728,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
@@ -9740,7 +9740,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -9965,19 +9965,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>425.1489105478544</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>69.59591606606023</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O33" t="n">
-        <v>75.97815626606008</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
@@ -10676,19 +10676,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O36" t="n">
-        <v>233.8802923605725</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10907,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>704.403637616307</v>
       </c>
       <c r="M39" t="n">
-        <v>745.8914891781321</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>247.2726194786469</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11080,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>557.7944283533852</v>
+        <v>458.6703921507824</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>811.8635318922903</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
@@ -11384,19 +11384,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0735895620844</v>
+        <v>754.1156070065516</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.789337852876713</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>130.352642708244</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23436,7 +23436,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>48.90106107657274</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>143.7176023067173</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>113.4434868346285</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>6.694084528254336</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>99.27352434754039</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>37.84312462897442</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>99.89679634752453</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>99.27352434754022</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>131.5292052432286</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24135,19 +24135,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>136.920342666603</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>45.55681957367977</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>36.3651580272259</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>76.79698635658076</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>188.0261852847986</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>36.46078111520831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>3.730177468488989</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>122.1342575031567</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>54.06597461814516</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>122.8515039573902</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24858,7 +24858,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.8703059417798</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>308.5558614412304</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>119.0440200142483</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25125,7 +25125,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>308.5558614412303</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>88.67973388510013</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>222.4997066824608</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>20.59981073162882</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -25608,16 +25608,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>154.32512756786</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>183.6621682837183</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>126.7129938415101</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>57.15158760478582</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>81.24842716230825</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25836,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>113.4434868346285</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>127.0033363101639</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>2.00524824558363</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26043,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.1230844485457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644441.9665482766</v>
+        <v>644441.9665482765</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651709.5019539609</v>
+        <v>651709.5019539607</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651709.5019539609</v>
+        <v>651709.501953961</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651709.5019539606</v>
+        <v>651709.5019539607</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651709.5019539607</v>
+        <v>651709.5019539609</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651709.5019539606</v>
+        <v>651709.5019539609</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651709.5019539605</v>
+        <v>651709.5019539609</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651709.5019539609</v>
+        <v>651709.5019539607</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>644441.9665482765</v>
+        <v>644441.9665482766</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811425</v>
+        <v>407205.9825811423</v>
       </c>
       <c r="C2" t="n">
-        <v>407205.9825811425</v>
+        <v>407205.9825811423</v>
       </c>
       <c r="D2" t="n">
-        <v>407205.9825811426</v>
+        <v>407205.9825811427</v>
       </c>
       <c r="E2" t="n">
-        <v>358023.3147490429</v>
+        <v>358023.3147490431</v>
       </c>
       <c r="F2" t="n">
         <v>358023.314749043</v>
@@ -26331,13 +26331,13 @@
         <v>362060.8344188674</v>
       </c>
       <c r="H2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="I2" t="n">
         <v>362060.8344188674</v>
       </c>
       <c r="J2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="K2" t="n">
         <v>362060.8344188674</v>
@@ -26346,16 +26346,16 @@
         <v>362060.8344188673</v>
       </c>
       <c r="M2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="N2" t="n">
-        <v>362060.8344188673</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="O2" t="n">
-        <v>358023.3147490429</v>
+        <v>358023.314749043</v>
       </c>
       <c r="P2" t="n">
-        <v>358023.3147490429</v>
+        <v>358023.3147490431</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>45643.1971151983</v>
+        <v>45643.19711519829</v>
       </c>
       <c r="E4" t="n">
         <v>728.2411357281799</v>
@@ -26435,28 +26435,28 @@
         <v>738.1279301446466</v>
       </c>
       <c r="H4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>728.24113572818</v>
+        <v>728.2411357281799</v>
       </c>
       <c r="P4" t="n">
         <v>728.2411357281799</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11763.03640133375</v>
+        <v>11763.03640133357</v>
       </c>
       <c r="C6" t="n">
-        <v>186718.5462944478</v>
+        <v>186718.5462944477</v>
       </c>
       <c r="D6" t="n">
-        <v>64952.38824588124</v>
+        <v>64952.38824588127</v>
       </c>
       <c r="E6" t="n">
-        <v>287701.3268284197</v>
+        <v>287504.5961570916</v>
       </c>
       <c r="F6" t="n">
-        <v>287701.3268284198</v>
+        <v>287504.5961570915</v>
       </c>
       <c r="G6" t="n">
-        <v>284725.7682433861</v>
+        <v>284545.1876507369</v>
       </c>
       <c r="H6" t="n">
-        <v>290457.4962438495</v>
+        <v>290276.9156512002</v>
       </c>
       <c r="I6" t="n">
-        <v>290457.4962438494</v>
+        <v>290276.9156512003</v>
       </c>
       <c r="J6" t="n">
-        <v>153862.6954379546</v>
+        <v>153682.1148453053</v>
       </c>
       <c r="K6" t="n">
-        <v>290457.4962438494</v>
+        <v>290276.9156512003</v>
       </c>
       <c r="L6" t="n">
-        <v>132890.5253663194</v>
+        <v>132709.9447736703</v>
       </c>
       <c r="M6" t="n">
-        <v>290457.4962438495</v>
+        <v>290276.9156512003</v>
       </c>
       <c r="N6" t="n">
-        <v>290457.4962438493</v>
+        <v>290276.9156512003</v>
       </c>
       <c r="O6" t="n">
-        <v>287701.3268284197</v>
+        <v>287504.5961570914</v>
       </c>
       <c r="P6" t="n">
-        <v>287701.3268284198</v>
+        <v>287504.5961570916</v>
       </c>
     </row>
   </sheetData>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>169.5739353429557</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>83.60616479608035</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27548,16 +27548,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>118.0394486198457</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>90.47308443410398</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>223.5250986947253</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>118.8981118226078</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>61.14666888802796</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27830,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>197.8130680476281</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>143.7176023067177</v>
       </c>
       <c r="Y8" t="n">
-        <v>123.6403001629007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>45.18559759026971</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28070,7 +28070,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.874559219806258</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>176.5650354103358</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
@@ -34722,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>306.2096305948396</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>500.9700927793177</v>
+        <v>445.0368534430327</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,10 +35178,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>677.9516281797315</v>
       </c>
       <c r="M8" t="n">
-        <v>701.3562195837223</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>108.5673193121739</v>
       </c>
       <c r="M9" t="n">
-        <v>788.7133462788642</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>677.9849323583327</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>360.9878040976426</v>
       </c>
       <c r="N12" t="n">
-        <v>133.5425242304481</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>677.9849323583327</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>606.6810728582175</v>
       </c>
       <c r="N15" t="n">
-        <v>542.3044286417409</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>110.3303957334049</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
@@ -36208,22 +36208,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N21" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
@@ -36460,7 +36460,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>370.8892755450506</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.22667726606021</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -36934,7 +36934,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O33" t="n">
-        <v>18.22667726606008</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37171,7 +37171,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O36" t="n">
-        <v>176.1288133605725</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>648.289113805458</v>
       </c>
       <c r="M39" t="n">
-        <v>688.3272054397147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>173.9490281453389</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37800,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>504.6010349596353</v>
+        <v>405.4769987570324</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>718.951241135671</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>401.8801961683344</v>
+        <v>700.9222136128017</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
